--- a/biology/Botanique/Jardin_Claire-Motte/Jardin_Claire-Motte.xlsx
+++ b/biology/Botanique/Jardin_Claire-Motte/Jardin_Claire-Motte.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le jardin Claire-Motte est un espace vert du 17e arrondissement de Paris, dans le quartier des Batignolles.
@@ -513,7 +525,9 @@
           <t>Situation et accès</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est accessible par la rue Marguerite-Long.
 Il est desservi par la ligne 13 à la station Porte de Clichy.
@@ -545,7 +559,9 @@
           <t>Origine du nom</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce jardin rend hommage à la danseuse étoile de l'Opéra de Paris Claire Motte (1937-1986).
 </t>
@@ -576,7 +592,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jardin est créé en 2005 à l'emplacement de l'ancien réseau des voies ferrées de la ligne Paris-Saint-Germain-en-Laye et du bastion no 45 de l'enceinte de Thiers.
 </t>
@@ -607,7 +625,9 @@
           <t>Bâtiments remarquables et lieux de mémoire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Vestiges du bastion no 45 de l'enceinte de Thiers.
 La Tower-Flower.
